--- a/search_logs.xlsx
+++ b/search_logs.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -407,20 +407,32 @@
         <v>Timestamp</v>
       </c>
       <c r="B1" t="str">
+        <v>Date</v>
+      </c>
+      <c r="C1" t="str">
+        <v>Time</v>
+      </c>
+      <c r="D1" t="str">
         <v>Email</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>2025-07-03T07:53:18.228Z</v>
+        <v>2025-07-03T08:40:04.963Z</v>
       </c>
       <c r="B2" t="str">
+        <v>3/7/2025</v>
+      </c>
+      <c r="C2" t="str">
+        <v>1:40:04 am</v>
+      </c>
+      <c r="D2" t="str">
         <v>kunaldutt69@gmail.com</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B2"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D2"/>
   </ignoredErrors>
 </worksheet>
 </file>